--- a/biology/Médecine/Jean-Baptiste_Pussin/Jean-Baptiste_Pussin.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Pussin/Jean-Baptiste_Pussin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Pussin, né à Lons-le-Saunier le 29 septembre 1745 et décédé à Paris le 7 avril 1811, était un surveillant de l'asile de Bicêtre, puis de la Salpêtrière.
 Il secondait le docteur Philippe Pinel et joua un rôle dans l'amélioration du sort des aliénés.
@@ -513,15 +525,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Baptiste Pussin naît le 29 septembre 1745 à Lons-le-Saunier, en Franche-Comté[1]. Il est le fils de Pierre Pussin, tanneur, et de son épouse, Claudine Lestivan. 
-Ancien tanneur, Jean-Baptiste Pussin arrive malade, atteint d'écrouelles[2], à Bicêtre, en 1771, où l'on tente de le soigner, puis, avec son certificat d' "incurable", est gardé à l'hôpital dans la section des « bons pauvres », durant plusieurs années. Il décide alors de s'impliquer dans la vie de l'hôpital : il aide tout d'abord les enfants malades durant leurs cours, puis devient portier de l'hospice[3].
-En 1780[3], il est promu surveillant dans le service des aliénés agités, puis, en 1785[2], « gouverneur des fous »[4], et travaille entre autres auprès du médecin militaire Jean Colombier, inspecteur de l'hôpital, proche de ses conceptions. Celui-ci sera son témoin lors de son mariage avec Marguerite Jubline, en 1786[3]. Sa femme travaille à ses côtés à Bicêtre, puis à la Salpêtrière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste Pussin naît le 29 septembre 1745 à Lons-le-Saunier, en Franche-Comté. Il est le fils de Pierre Pussin, tanneur, et de son épouse, Claudine Lestivan. 
+Ancien tanneur, Jean-Baptiste Pussin arrive malade, atteint d'écrouelles, à Bicêtre, en 1771, où l'on tente de le soigner, puis, avec son certificat d' "incurable", est gardé à l'hôpital dans la section des « bons pauvres », durant plusieurs années. Il décide alors de s'impliquer dans la vie de l'hôpital : il aide tout d'abord les enfants malades durant leurs cours, puis devient portier de l'hospice.
+En 1780, il est promu surveillant dans le service des aliénés agités, puis, en 1785, « gouverneur des fous », et travaille entre autres auprès du médecin militaire Jean Colombier, inspecteur de l'hôpital, proche de ses conceptions. Celui-ci sera son témoin lors de son mariage avec Marguerite Jubline, en 1786. Sa femme travaille à ses côtés à Bicêtre, puis à la Salpêtrière.
 Il consigne ses notes, observations et remarques dans des carnets et cahiers sur lesquels les médecins peuvent s'appuyer.
 En 1793, Philippe Pinel prend ses fonctions à Bicêtre. Il remarque que la façon de procéder de Pussin avec les aliénés était très efficace : Pussin était très humain avec les malades, et lorsque ceux-ci étaient libérés de leurs chaînes, ceux-ci se comportaient bien.
-Pussin était un homme de carrure très forte, doué d'un certain sens de l'observation. Au caractère autoritaire, supportant mal les ordres de la hiérarchie administrative, et imposant imperturbablement les siens à ceux qui dépendaient de lui. Il mit en œuvre la suppression des chaînes des malades mentaux[5].
-Lorsque Pinel, en 1795, fut muté à la Salpêtrière, il demanda que Pussin le suive, afin de pouvoir bénéficier des services de « police intérieure » de ce dernier ; après plusieurs années d'attente, et grâce à l'influence du ministre de l'Intérieur Jean-Antoine Chaptal, cela lui est enfin accordé en 1802[6],[2]. Pussin a donc été surveillant à Bicêtre de 1780 à 1802[7], date à laquelle il est nommé à la Salpêtrière, et où il travaillera jusqu'à son décès, survenu le 7 avril 1811[8]. Il contribue à la réforme asilaire et enlève les fers des aliénés le 4 prairial de l'an VI. Il applique ensuite cette même libération à l'hospice national des femmes.
+Pussin était un homme de carrure très forte, doué d'un certain sens de l'observation. Au caractère autoritaire, supportant mal les ordres de la hiérarchie administrative, et imposant imperturbablement les siens à ceux qui dépendaient de lui. Il mit en œuvre la suppression des chaînes des malades mentaux.
+Lorsque Pinel, en 1795, fut muté à la Salpêtrière, il demanda que Pussin le suive, afin de pouvoir bénéficier des services de « police intérieure » de ce dernier ; après plusieurs années d'attente, et grâce à l'influence du ministre de l'Intérieur Jean-Antoine Chaptal, cela lui est enfin accordé en 1802,. Pussin a donc été surveillant à Bicêtre de 1780 à 1802, date à laquelle il est nommé à la Salpêtrière, et où il travaillera jusqu'à son décès, survenu le 7 avril 1811. Il contribue à la réforme asilaire et enlève les fers des aliénés le 4 prairial de l'an VI. Il applique ensuite cette même libération à l'hospice national des femmes.
 Jean Baptiste Pussin est le père spirituel de l'infirmier en psychiatrie. Il est le premier surveillant à écrire des observations sur ses patients. Estimant qu'ils étaient plus aptes, il choisira le personnel parmi les malades guéris et les convalescents.
 </t>
         </is>
@@ -553,10 +567,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plaque commémorative
-Le préfet Eugène Poubelle, le 3 août 1887, inaugure une plaque commémorative apposée sur un mur de l'hôpital Bicêtre, pour le travail de surveillant de Pussin dans l'hospice, de 1780 à 1802. Elle sera restaurée, puis installée à l'entrée de l'hôpital en février 2007[7].
-Lieux et bâtiments
-Jean-Baptiste Pussin est le nom de l'Institut de formation en soins infirmiers (IFSI) des hôpitaux de Saint-Maurice (anciennement hôpital Esquirol) à Saint-Maurice (Val-de-Marne).
+          <t>Plaque commémorative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le préfet Eugène Poubelle, le 3 août 1887, inaugure une plaque commémorative apposée sur un mur de l'hôpital Bicêtre, pour le travail de surveillant de Pussin dans l'hospice, de 1780 à 1802. Elle sera restaurée, puis installée à l'entrée de l'hôpital en février 2007.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Pussin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Pussin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lieux et bâtiments</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste Pussin est le nom de l'Institut de formation en soins infirmiers (IFSI) des hôpitaux de Saint-Maurice (anciennement hôpital Esquirol) à Saint-Maurice (Val-de-Marne).
 Une unité de l'hôpital psychiatrique "Saint Jean de Dieu" à Lyon, une unité de l'établissement public de santé d'Alsace du Nord (EPSAN) portent également son nom, ainsi qu'une unité de psychiatrie adulte du centre hospitalier du Mas Careiron à Uzès (Gard), du centre hospitalier à Lens (Pas-de-Calais) et de la Fondation Bon Sauveur de Saint-Lô (Manche). Un hôpital de jour de soins de réadaptation psychique à l'hôpital Bicêtre (AP-HP), une unité du centre hospitalier du Rouvray à Sotteville-lès-Rouen, une unité du Centre Hospitalier Henri Laborit de Poitiers à Nieuil-l'Espoir, une unité d'hospitalisation de psychiatrie adulte du centre hospitalier de Versailles (Yvelines), une unité d'hospitalisation en psychiatrie adulte du centre hospitalier spécialisé de la Savoie, une unité de soins à l'hôpital André Breton de Saint-Dizier ainsi qu'un foyer d'accueil médicalisé au sein du centre hospitalier de la Chartreuse de Dijon, une unité à l'hôpital psychiatrique "Marius Lacroix" situé à La Rochelle dédié à la réhabilitation, portent son nom.
 Un centre de consultation psychiatrique du Cesame à Angers porte également son nom.
 </t>
